--- a/extraer-datos/url-ripley.xlsx
+++ b/extraer-datos/url-ripley.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rls\tvs-comparativo\extraer-datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RCoursera\r-s-l\extraer-datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="280">
   <si>
     <t>http://simple.ripley.com.pe/ripley-home/muebles/ver-todo-muebles?page=2</t>
   </si>
@@ -252,6 +252,618 @@
   </si>
   <si>
     <t>http://simple.ripley.com.pe/ripley-home/outlet/ver-todo-outlet?page=3</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/moda-mujer/todo-moda-mujer?page=5</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/moda-hombre/todo-moda-hombre?page=2</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/lenceria-y-pijamas/pijamas</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/lenceria-y-pijamas/lenceria</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/deporte/ropa-deportiva-mujer/todo-ropa-deportiva-mujer</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/deporte/ropa-deportiva-hombre?page=2</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/deporte/ropa-deportiva-infantil/todo-ropa-deportiva-infantil</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/deporte/ropa-deportiva-infantil/ninos</t>
+  </si>
+  <si>
+    <t>Marcas Mujer</t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/marcas-mujer/47-street</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/marcas-mujer/index?page=4</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/marcas-mujer/marquis</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/marcas-mujer/metal-jeans</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/marcas-mujer/parada-111</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/marcas-mujer/pionier</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/marcas-mujer/soda</t>
+  </si>
+  <si>
+    <t>Marcas Hombre</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/marcas-hombre/transformers</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/moda/marcas-hombre?page=3</t>
+  </si>
+  <si>
+    <t>Calzado</t>
+  </si>
+  <si>
+    <t>Calzado Mujer</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/calzado-mujer/todo-calzado-mujer?page=11</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/calzado-hombre/todo-calzado-hombre?page=11</t>
+  </si>
+  <si>
+    <t>Calzado Hombre</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/calzado-infantil/todo-calzado-infantil?page=9</t>
+  </si>
+  <si>
+    <t>Calzado Infantil</t>
+  </si>
+  <si>
+    <t>Zapatillas Urbanas</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/zapatillas-urbanas/todo-urbanas?page=20</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/deporte/zapatillas-deportivas/todo-zapatillas?page=15</t>
+  </si>
+  <si>
+    <t>Zapatillas Deportivas</t>
+  </si>
+  <si>
+    <t>Tendencias</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/tendencias/zapatillas-cana-alta</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/tendencias/zapatillas-estilo-deportivo?page=3</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/tendencias/zapatillas-color?page=2</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/tendencias/zapatillas-aplicaciones</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/tendencias/zapatillas-blancas?page=2</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/asics</t>
+  </si>
+  <si>
+    <t>Marcas</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/mazzarri?page=2</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/adidas?page=9</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/guess</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/puma?page=5</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/steve-madden</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/marquis?page=3</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/index?page=5</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/foresta</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/nike?page=4</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/converse?page=5</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/vans?page=2</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/calzado/marcas/caterpillar?page=2</t>
+  </si>
+  <si>
+    <t>Cómputo</t>
+  </si>
+  <si>
+    <t>Laptops</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/computo/laptops/todas-las-laptops?page=6</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/computo/2-en-1-convertibles/laptops-2-en-1</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/computo/computadoras/pc-all-in-one</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/computo/zona-gamer/todo-zona-gamer?page=2</t>
+  </si>
+  <si>
+    <t>Zona Gamer</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/computo/tablets-phablets-y-accesorios/todo-tablets?page=3</t>
+  </si>
+  <si>
+    <t>Tablets</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/computo/impresoras-y-tintas/todo-impresoras?page=3</t>
+  </si>
+  <si>
+    <t>Impresoras y tintas</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/computo/accesorios-y-software/todo-accesorios-y-software?page=6</t>
+  </si>
+  <si>
+    <t>Accesorios y Software</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/computo/almacenamiento/todo-almacenamiento?page=3</t>
+  </si>
+  <si>
+    <t>Almacenamiento</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/computo/proyectores-y-monitores/todo-proyectores-monitores?page=2</t>
+  </si>
+  <si>
+    <t>Proyectores y monitores</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/computo/ofertas/especial-computo?page=3</t>
+  </si>
+  <si>
+    <t>Celulares</t>
+  </si>
+  <si>
+    <t>Smartphones</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/celulares/smartphones/todo-celulares-y-telefonia?page=3</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/celulares/operadores-moviles/entel</t>
+  </si>
+  <si>
+    <t>Operadores móviles</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/celulares/operadores-moviles/claro</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/celulares/smartwatch-y-wearables/todo-smartwatch-y-wearables?page=2</t>
+  </si>
+  <si>
+    <t>Smartwatchs y wearables</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/celulares/accesorios-de-celulares/todo-accesorios-de-celulares?page=6</t>
+  </si>
+  <si>
+    <t>Accesorios celulares</t>
+  </si>
+  <si>
+    <t>Audio portátil</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/celulares/audio-portatil/ver-todo-audio-portatil?page=7</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/electrohogar/lavado-y-secado/todo-lavado?page=4</t>
+  </si>
+  <si>
+    <t>Electrohogar</t>
+  </si>
+  <si>
+    <t>Lavado y secado</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/electrohogar/refrigeracion/todo-refrigeracion?page=7</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/electrohogar/cocinas-y-hornos/todo-cocinas?page=21</t>
+  </si>
+  <si>
+    <t>Cocinas y hornos</t>
+  </si>
+  <si>
+    <t>Electrodomésticos</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/electrohogar/electrodomesticos/todos-los-electrodomesticos?page=21</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/electrohogar/climatizacion-y-bano/todo-climatizacion-y-bano?page=4</t>
+  </si>
+  <si>
+    <t>Climatizacion y baño</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/electrohogar/cuidado-personal/todo-cuidado-personal?page=5</t>
+  </si>
+  <si>
+    <t>Cuidado personal</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/electrohogar/ofertas/especial-linea-blanca?page=22</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/electrohogar/mas-electrodomesticos/combos?page=2</t>
+  </si>
+  <si>
+    <t>Más electrodomésticos</t>
+  </si>
+  <si>
+    <t>Herramientas eléctricas</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/electrohogar/herramientas-electricas/todo-herramientas?page=6</t>
+  </si>
+  <si>
+    <t>Muebles</t>
+  </si>
+  <si>
+    <t>Sofás y juegos de sala</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/muebles/sofas-y-juegos-de-sala/ver-todo-sofas-y-juegos-de-sala?page=8</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/muebles/seccionales/ver-todo-seccionales?page=3</t>
+  </si>
+  <si>
+    <t>Seccionales</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/muebles/colecciones-de-sofas/ver-todo-colecciones?page=3</t>
+  </si>
+  <si>
+    <t>Colecciones de sofás</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/muebles/sitiales-y-banquetas/ver-todo-sitiales-y-banquetas?page=4</t>
+  </si>
+  <si>
+    <t>Sitiales y banquetas</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/muebles/reclinables-y-futones/ver-todo-reclinables-y-futones?page=2</t>
+  </si>
+  <si>
+    <t>Reclinables y futones</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/muebles/mesas-varias/ver-todo-mesas-varias?page=2</t>
+  </si>
+  <si>
+    <t>Mesas varias</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/muebles/comedor-y-bar/ver-todo-comedor-y-bar?page=7</t>
+  </si>
+  <si>
+    <t>Comedor y bar</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/muebles/organizacion/ver-todo-organizacion?page=4</t>
+  </si>
+  <si>
+    <t>Organización</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/muebles/muebles-de-dormitorio/ver-todo-muebles-de-dormitorio?page=4</t>
+  </si>
+  <si>
+    <t>Muebles de dormitorio</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/muebles/terraza/ver-todo-terraza?page=2</t>
+  </si>
+  <si>
+    <t>Terraza</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/muebles/marcas?page=14</t>
+  </si>
+  <si>
+    <t>Outlet</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/muebles/outlet/ver-todo-outlet?page=2</t>
+  </si>
+  <si>
+    <t>Dormitorio</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/dormitorio/marcas?page=44</t>
+  </si>
+  <si>
+    <t>Colchones</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/dormitorio/colchones/ver-todo-colchones?page=13</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/dormitorio/cama-con-box-tarima/ver-todo-cama-con-box-tarima?page=17</t>
+  </si>
+  <si>
+    <t>Cama con box tarima</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/dormitorio/cama-con-box-spring/ver-todo-cama-con-box-spring?page=2</t>
+  </si>
+  <si>
+    <t>Cama con box spring</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/dormitorio/cama-europea/ver-todo-cama-europea</t>
+  </si>
+  <si>
+    <t>Cama europea</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/dormitorio/juegos-de-dormitorio/ver-todo-juegos-de-dormitorio?page=9</t>
+  </si>
+  <si>
+    <t>Juegos de dormitorio</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/dormitorio/camas-funcionales/ver-todo-camas-funcionales</t>
+  </si>
+  <si>
+    <t>Camas funcionales</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/dormitorio/muebles-de-dormitorio/ver-todo-muebles-de-dormitorio?page=4</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/dormitorio/almohadas-y-edredones-blancos/ver-todo-almohadas-y-edredones?page=3</t>
+  </si>
+  <si>
+    <t>Almohadas y edredones</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/dormitorio/ropa-de-cama/ver-todo-ropa-de-cama?page=16</t>
+  </si>
+  <si>
+    <t>Ropa de cama</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/dormitorio/infantil/ver-todo-dormitorio-infantil</t>
+  </si>
+  <si>
+    <t>Infantil</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/dormitorio/toallas-y-accesorios/ver-todo-toallas-y-accesorios?page=3</t>
+  </si>
+  <si>
+    <t>Toallas y accesorios</t>
+  </si>
+  <si>
+    <t>Belleza y accesorios</t>
+  </si>
+  <si>
+    <t>Relojes</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/belleza-y-accesorios/relojes/todo-los-relojes?page=38</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/belleza-y-accesorios/carteras-y-accesorios/todo-accesorios?page=23</t>
+  </si>
+  <si>
+    <t>Carteras y accesorios</t>
+  </si>
+  <si>
+    <t>Bijouterie y joyeria</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/belleza-y-accesorios/bijouterie-y-joyeria/todo-bijouterie-y-joyeria?page=4</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/belleza-y-accesorios/perfumeria/todos-los-perfumes?page=25</t>
+  </si>
+  <si>
+    <t>Perfumes</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/belleza-y-accesorios/maquillaje/todo-maquillaje?page=24</t>
+  </si>
+  <si>
+    <t>Maquillaje</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/belleza-y-accesorios/cuidado-de-la-piel/todo-cuidado-de-la-piel?page=8</t>
+  </si>
+  <si>
+    <t>Cuidado de la piel</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/belleza-y-accesorios/cuidado-personal?page=4</t>
+  </si>
+  <si>
+    <t>Deporte</t>
+  </si>
+  <si>
+    <t>Maquinas</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/deporte/maquinas/todo-maquinas?page=4</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/deporte/bicicletas/todo-bicicletas?page=18</t>
+  </si>
+  <si>
+    <t>Bicicletas</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/deporte/camping-y-tiempo-libre/todo-camping-y-tiempo-libre?page=5</t>
+  </si>
+  <si>
+    <t>Camping</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/deporte/otros-deportes/todo-otros-deportes?page=5</t>
+  </si>
+  <si>
+    <t>Otros deportes</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/deporte/zapatillas-deportivas/todo-zapatillas?page=11</t>
+  </si>
+  <si>
+    <t>Ropa deportiva mujer</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/deporte/ropa-deportiva-hombre/todo-ropa-deportiva-hombre</t>
+  </si>
+  <si>
+    <t>Ropa deportiva hombre</t>
+  </si>
+  <si>
+    <t>Ropa deportiva niños</t>
+  </si>
+  <si>
+    <t>TV y video</t>
+  </si>
+  <si>
+    <t>Televisores</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/tv-y-video/televisores/ver-todo-tv?page=5</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/tv-y-video/video-y-accesorios/ver-todo-reproductores?page=2</t>
+  </si>
+  <si>
+    <t>Video y accesorios</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/tv-y-video/audio/ver-todo-audio</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/tv-y-video/equipo-de-sonido/ver-todo-equipo-de-sonido?page=2</t>
+  </si>
+  <si>
+    <t>Equipo de sonido</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/tv-y-video/car-audio/ver-todo-car-audio?page=2</t>
+  </si>
+  <si>
+    <t>Car audio</t>
+  </si>
+  <si>
+    <t>Juguetería</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/infantil/jugueteria/todo-juguetes?page=43</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/infantil/paseo-y-viajes/todo-paseo-y-viajes?page=13</t>
+  </si>
+  <si>
+    <t>Paseo y viajes</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/infantil/mundo-bebe/todo-mundo-bebe?page=11</t>
+  </si>
+  <si>
+    <t>Mundo bebé</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/infantil/maternidad/todo-maternidad?page=8</t>
+  </si>
+  <si>
+    <t>Maternidad</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/infantil/actividad/todo-actividad?page=5</t>
+  </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/infantil/juegos-de-exterior/todo-juegos-de-exterior?page=6</t>
+  </si>
+  <si>
+    <t>Juegos de exterior</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/infantil/marcas-ninas?page=11</t>
+  </si>
+  <si>
+    <t>Marcas niñas</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/infantil/marcas-ninos?page=14</t>
+  </si>
+  <si>
+    <t>Marcas niños</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/infantil/marcas-bebes?page=11</t>
+  </si>
+  <si>
+    <t>Marcas bebés</t>
+  </si>
+  <si>
+    <t>http://simple.ripley.com.pe/infantil/moda-infantil/todo-moda-infantil</t>
+  </si>
+  <si>
+    <t>Moda infantil</t>
   </si>
 </sst>
 </file>
@@ -614,621 +1226,2128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="D20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="D21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="D23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="D24">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="D25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="D26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="D28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="D29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="D30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="D31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="D33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="D35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="D36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="D37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="D38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="D39">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="D40">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="D41">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="D42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="D43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="D44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="D45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="D46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="D48">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="D49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="D50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="D52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="D55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="D57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="D58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="D59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="D60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="D64">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="D67">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="D68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="D70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
+      <c r="D72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
+      <c r="D73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
+      <c r="D75">
         <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>96</v>
+      </c>
+      <c r="B108" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>96</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>96</v>
+      </c>
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>126</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" t="s">
+        <v>130</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" t="s">
+        <v>132</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120" t="s">
+        <v>134</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" t="s">
+        <v>136</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" t="s">
+        <v>139</v>
+      </c>
+      <c r="C122" t="s">
+        <v>138</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" t="s">
+        <v>140</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>143</v>
+      </c>
+      <c r="C124" t="s">
+        <v>142</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>114</v>
+      </c>
+      <c r="C125" t="s">
+        <v>144</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" t="s">
+        <v>146</v>
+      </c>
+      <c r="C126" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127" t="s">
+        <v>149</v>
+      </c>
+      <c r="C127" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128" t="s">
+        <v>149</v>
+      </c>
+      <c r="C128" t="s">
+        <v>150</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" t="s">
+        <v>152</v>
+      </c>
+      <c r="C129" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" t="s">
+        <v>153</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" t="s">
+        <v>155</v>
+      </c>
+      <c r="C131" t="s">
+        <v>156</v>
+      </c>
+      <c r="D131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" t="s">
+        <v>159</v>
+      </c>
+      <c r="C132" t="s">
+        <v>157</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" t="s">
+        <v>160</v>
+      </c>
+      <c r="D133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" t="s">
+        <v>161</v>
+      </c>
+      <c r="D134">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" t="s">
+        <v>164</v>
+      </c>
+      <c r="D135">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" t="s">
+        <v>166</v>
+      </c>
+      <c r="C136" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" t="s">
+        <v>168</v>
+      </c>
+      <c r="C137" t="s">
+        <v>167</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" t="s">
+        <v>169</v>
+      </c>
+      <c r="D138">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" t="s">
+        <v>171</v>
+      </c>
+      <c r="C139" t="s">
+        <v>170</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140" t="s">
+        <v>173</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>174</v>
+      </c>
+      <c r="B141" t="s">
+        <v>175</v>
+      </c>
+      <c r="C141" t="s">
+        <v>176</v>
+      </c>
+      <c r="D141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>174</v>
+      </c>
+      <c r="B142" t="s">
+        <v>178</v>
+      </c>
+      <c r="C142" t="s">
+        <v>177</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B143" t="s">
+        <v>180</v>
+      </c>
+      <c r="C143" t="s">
+        <v>179</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>174</v>
+      </c>
+      <c r="B144" t="s">
+        <v>182</v>
+      </c>
+      <c r="C144" t="s">
+        <v>181</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>174</v>
+      </c>
+      <c r="B145" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" t="s">
+        <v>183</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" t="s">
+        <v>186</v>
+      </c>
+      <c r="C146" t="s">
+        <v>185</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" t="s">
+        <v>188</v>
+      </c>
+      <c r="C147" t="s">
+        <v>187</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>174</v>
+      </c>
+      <c r="B148" t="s">
+        <v>190</v>
+      </c>
+      <c r="C148" t="s">
+        <v>189</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" t="s">
+        <v>192</v>
+      </c>
+      <c r="C149" t="s">
+        <v>191</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>174</v>
+      </c>
+      <c r="B150" t="s">
+        <v>194</v>
+      </c>
+      <c r="C150" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>174</v>
+      </c>
+      <c r="B151" t="s">
+        <v>114</v>
+      </c>
+      <c r="C151" t="s">
+        <v>195</v>
+      </c>
+      <c r="D151">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>174</v>
+      </c>
+      <c r="B152" t="s">
+        <v>196</v>
+      </c>
+      <c r="C152" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>198</v>
+      </c>
+      <c r="B153" t="s">
+        <v>114</v>
+      </c>
+      <c r="C153" t="s">
+        <v>199</v>
+      </c>
+      <c r="D153">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>198</v>
+      </c>
+      <c r="B154" t="s">
+        <v>200</v>
+      </c>
+      <c r="C154" t="s">
+        <v>201</v>
+      </c>
+      <c r="D154">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>198</v>
+      </c>
+      <c r="B155" t="s">
+        <v>203</v>
+      </c>
+      <c r="C155" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>198</v>
+      </c>
+      <c r="B156" t="s">
+        <v>205</v>
+      </c>
+      <c r="C156" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>198</v>
+      </c>
+      <c r="B157" t="s">
+        <v>207</v>
+      </c>
+      <c r="C157" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>198</v>
+      </c>
+      <c r="B158" t="s">
+        <v>209</v>
+      </c>
+      <c r="C158" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>198</v>
+      </c>
+      <c r="B159" t="s">
+        <v>211</v>
+      </c>
+      <c r="C159" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>198</v>
+      </c>
+      <c r="B160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C160" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>198</v>
+      </c>
+      <c r="B161" t="s">
+        <v>214</v>
+      </c>
+      <c r="C161" t="s">
+        <v>213</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>198</v>
+      </c>
+      <c r="B162" t="s">
+        <v>216</v>
+      </c>
+      <c r="C162" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>198</v>
+      </c>
+      <c r="B163" t="s">
+        <v>218</v>
+      </c>
+      <c r="C163" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>198</v>
+      </c>
+      <c r="B164" t="s">
+        <v>220</v>
+      </c>
+      <c r="C164" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>221</v>
+      </c>
+      <c r="B165" t="s">
+        <v>222</v>
+      </c>
+      <c r="C165" t="s">
+        <v>223</v>
+      </c>
+      <c r="D165">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>221</v>
+      </c>
+      <c r="B166" t="s">
+        <v>225</v>
+      </c>
+      <c r="C166" t="s">
+        <v>224</v>
+      </c>
+      <c r="D166">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>221</v>
+      </c>
+      <c r="B167" t="s">
+        <v>226</v>
+      </c>
+      <c r="C167" t="s">
+        <v>227</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>221</v>
+      </c>
+      <c r="B168" t="s">
+        <v>229</v>
+      </c>
+      <c r="C168" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>221</v>
+      </c>
+      <c r="B169" t="s">
+        <v>231</v>
+      </c>
+      <c r="C169" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>221</v>
+      </c>
+      <c r="B170" t="s">
+        <v>233</v>
+      </c>
+      <c r="C170" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>221</v>
+      </c>
+      <c r="B171" t="s">
+        <v>168</v>
+      </c>
+      <c r="C171" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>235</v>
+      </c>
+      <c r="B172" t="s">
+        <v>236</v>
+      </c>
+      <c r="C172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>235</v>
+      </c>
+      <c r="B173" t="s">
+        <v>239</v>
+      </c>
+      <c r="C173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>235</v>
+      </c>
+      <c r="B174" t="s">
+        <v>241</v>
+      </c>
+      <c r="C174" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>235</v>
+      </c>
+      <c r="B175" t="s">
+        <v>243</v>
+      </c>
+      <c r="C175" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>235</v>
+      </c>
+      <c r="B176" t="s">
+        <v>106</v>
+      </c>
+      <c r="C176" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>235</v>
+      </c>
+      <c r="B177" t="s">
+        <v>245</v>
+      </c>
+      <c r="C177" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>235</v>
+      </c>
+      <c r="B178" t="s">
+        <v>247</v>
+      </c>
+      <c r="C178" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>235</v>
+      </c>
+      <c r="B179" t="s">
+        <v>248</v>
+      </c>
+      <c r="C179" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>249</v>
+      </c>
+      <c r="B180" t="s">
+        <v>250</v>
+      </c>
+      <c r="C180" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>249</v>
+      </c>
+      <c r="B181" t="s">
+        <v>253</v>
+      </c>
+      <c r="C181" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>249</v>
+      </c>
+      <c r="B182" t="s">
+        <v>255</v>
+      </c>
+      <c r="C182" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>249</v>
+      </c>
+      <c r="B183" t="s">
+        <v>257</v>
+      </c>
+      <c r="C183" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>249</v>
+      </c>
+      <c r="B184" t="s">
+        <v>259</v>
+      </c>
+      <c r="C184" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>218</v>
+      </c>
+      <c r="B185" t="s">
+        <v>260</v>
+      </c>
+      <c r="C185" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>218</v>
+      </c>
+      <c r="B186" t="s">
+        <v>263</v>
+      </c>
+      <c r="C186" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>218</v>
+      </c>
+      <c r="B187" t="s">
+        <v>265</v>
+      </c>
+      <c r="C187" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>218</v>
+      </c>
+      <c r="B188" t="s">
+        <v>267</v>
+      </c>
+      <c r="C188" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>218</v>
+      </c>
+      <c r="B189" t="s">
+        <v>269</v>
+      </c>
+      <c r="C189" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>218</v>
+      </c>
+      <c r="B190" t="s">
+        <v>271</v>
+      </c>
+      <c r="C190" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>218</v>
+      </c>
+      <c r="B191" t="s">
+        <v>273</v>
+      </c>
+      <c r="C191" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>218</v>
+      </c>
+      <c r="B192" t="s">
+        <v>275</v>
+      </c>
+      <c r="C192" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>218</v>
+      </c>
+      <c r="B193" t="s">
+        <v>277</v>
+      </c>
+      <c r="C193" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>218</v>
+      </c>
+      <c r="B194" t="s">
+        <v>279</v>
+      </c>
+      <c r="C194" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A64" r:id="rId1"/>
+    <hyperlink ref="C64" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>